--- a/sample/试场场次Excel-样例.xlsx
+++ b/sample/试场场次Excel-样例.xlsx
@@ -1,79 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Java\Spring\exam-order\sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C35D44-8501-4A69-8231-1A34A7E118A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+  <si>
+    <t>考点代码</t>
+  </si>
+  <si>
+    <t>考点名称</t>
+  </si>
   <si>
     <t>类别代码</t>
   </si>
   <si>
+    <t>类别名称</t>
+  </si>
+  <si>
+    <t>考试时间</t>
+  </si>
+  <si>
+    <t>试场号</t>
+  </si>
+  <si>
+    <t>容纳人数</t>
+  </si>
+  <si>
+    <t>试场数</t>
+  </si>
+  <si>
+    <t>模板使用说明</t>
+  </si>
+  <si>
+    <t>#选填</t>
+  </si>
+  <si>
+    <t>嘉兴市第十测试学校</t>
+  </si>
+  <si>
     <t>020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考点代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考试时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>容纳人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>试场号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>试场数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#选填</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机类</t>
+  </si>
+  <si>
+    <t>2024年1月10日9:00-10:30</t>
   </si>
   <si>
     <t>30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023年1月10日9:00-10:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板使用说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考点名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1. 该模板列的顺序可变动，以列名作为读取匹配条件。请不要改动列名即可。
 2. 也可以自行将已有的Excel文件修改表头，进行导入。
 3. “考点代码”列：选填。如果所有学生都为同一个学校，可以为空，或者不改“#选填”字样。
@@ -84,7 +95,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -95,7 +105,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>”列：</t>
@@ -105,7 +115,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -116,7 +125,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>。将会展示考点的名称。
@@ -127,7 +136,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -138,7 +146,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>”列：</t>
@@ -148,7 +156,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,7 +166,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>。需要和考生信息Excel中一致。
@@ -174,7 +181,6 @@
         <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -185,7 +191,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>。试场数可以有剩余，但试场数*人数的总和不能少于该类别的考生数。
@@ -193,65 +199,250 @@
 10. 浏览器页面中也可以进行相关参数的部分调整。
 11. “#选填”字样系统将默认处理为空白单元格（需以“#选填”开头），可以不删除。或者手动删除为空白皆可。</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉兴市第十测试学校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财会类</t>
+  </si>
+  <si>
+    <t>2024年1月14日9:00-10:00</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>其他类1</t>
+  </si>
+  <si>
+    <t>2024年1月22日13:00-14:00</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>其他类2</t>
+  </si>
+  <si>
+    <t>2024年2月1日14:00-16:30</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>991X</t>
+  </si>
+  <si>
+    <t>其他类2X</t>
+  </si>
+  <si>
+    <t>2024年2月10日14:15-17:10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,10 +452,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -296,9 +674,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -306,33 +926,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -381,7 +1045,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -414,26 +1078,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -466,23 +1113,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,229 +1254,346 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.87890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.87890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.87890625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.3515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.46875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.234375" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.35" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.23333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.35" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.4666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="46.2333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18.75" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="10:10">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="10:10">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="10:10">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="10:10">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="10:10">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="10:10">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="10:10">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="10:10">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="10:10">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="10:10">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="10:10">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="10:10">
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J45" s="4"/>
+    <row r="30" spans="10:10">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="10:10">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="10:10">
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="10:10">
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="10:10">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="10:10">
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="10:10">
+      <c r="J46" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J2:J28"/>
+    <mergeCell ref="J2:J29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>